--- a/ВОЛС/лаб1 волс.xlsx
+++ b/ВОЛС/лаб1 волс.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Анастасия\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба\Study\Study\ВОЛС\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31649D4C-43C5-43B4-BF8E-79DE67F2AA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81ADF2A9-9EFB-47EB-8C9F-E6EC39B0670C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6024" yWindow="552" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -270,7 +270,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -285,96 +285,11 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -394,48 +309,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -444,32 +318,30 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,10 +349,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -491,64 +381,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -833,14 +666,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" customWidth="1"/>
     <col min="3" max="3" width="32.33203125" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" customWidth="1"/>
     <col min="5" max="5" width="26.21875" customWidth="1"/>
@@ -849,7 +682,7 @@
     <col min="8" max="8" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -875,415 +708,415 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:8" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>1</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>1</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="5">
         <v>1.6</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
         <v>2</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>10</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="2">
         <v>120</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="36" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:8" ht="90.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="36.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="2">
         <v>35</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="409.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:8" ht="199.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="2" t="s">
         <v>71</v>
       </c>
     </row>
